--- a/data/game-data.xlsx
+++ b/data/game-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Elisa/Documents/OneDrive - UW Office 365/info-430/project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BCC45BF-7AB4-EB49-A21B-28048245B91F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6876FCB5-10C7-854E-87A0-0B28E3D1DCAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14100" xr2:uid="{02CB76CD-17B1-9441-809C-D6A55B88F13C}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="90">
   <si>
     <t>GameReleaseDate</t>
   </si>
@@ -300,9 +300,6 @@
   </si>
   <si>
     <t>Playstation</t>
-  </si>
-  <si>
-    <t>Mobile</t>
   </si>
   <si>
     <t>Wii U</t>
@@ -669,8 +666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36858BE6-3422-4A47-B16E-F2BA71BFCA48}">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:G20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -782,6 +779,15 @@
       <c r="F4" t="s">
         <v>16</v>
       </c>
+      <c r="G4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H4" t="s">
+        <v>84</v>
+      </c>
+      <c r="I4" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
@@ -1367,7 +1373,7 @@
         <v>54</v>
       </c>
       <c r="G26" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
@@ -1468,7 +1474,7 @@
         <v>16</v>
       </c>
       <c r="G30" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H30" t="s">
         <v>86</v>

--- a/data/game-data.xlsx
+++ b/data/game-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Elisa/Documents/OneDrive - UW Office 365/info-430/project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6876FCB5-10C7-854E-87A0-0B28E3D1DCAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A2A932C-0897-3D44-8870-08E7B94AAFB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14100" xr2:uid="{02CB76CD-17B1-9441-809C-D6A55B88F13C}"/>
   </bookViews>
@@ -65,9 +65,6 @@
     <t>Shooter</t>
   </si>
   <si>
-    <t>Simulator</t>
-  </si>
-  <si>
     <t>Everyone 10+</t>
   </si>
   <si>
@@ -293,9 +290,6 @@
     <t>PlayStation</t>
   </si>
   <si>
-    <t>Nintendo Switch</t>
-  </si>
-  <si>
     <t>Platform4</t>
   </si>
   <si>
@@ -303,6 +297,12 @@
   </si>
   <si>
     <t>Wii U</t>
+  </si>
+  <si>
+    <t>Switch</t>
+  </si>
+  <si>
+    <t>Simulation</t>
   </si>
 </sst>
 </file>
@@ -666,8 +666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36858BE6-3422-4A47-B16E-F2BA71BFCA48}">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -678,7 +678,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -696,16 +696,16 @@
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="J1" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -719,16 +719,16 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
       </c>
       <c r="G2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -739,745 +739,745 @@
         <v>43910</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
         <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
       </c>
       <c r="G3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H3" t="s">
+        <v>82</v>
+      </c>
+      <c r="I3" t="s">
         <v>84</v>
-      </c>
-      <c r="H3" t="s">
-        <v>83</v>
-      </c>
-      <c r="I3" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1">
         <v>43924</v>
       </c>
       <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1">
         <v>43979</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="G5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1">
         <v>43896</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G6" t="s">
+        <v>83</v>
+      </c>
+      <c r="H6" t="s">
+        <v>82</v>
+      </c>
+      <c r="I6" t="s">
         <v>84</v>
-      </c>
-      <c r="H6" t="s">
-        <v>83</v>
-      </c>
-      <c r="I6" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="1">
         <v>43920</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" s="1">
         <v>43944</v>
       </c>
       <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
         <v>28</v>
-      </c>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" t="s">
-        <v>29</v>
       </c>
       <c r="F8" t="s">
         <v>7</v>
       </c>
       <c r="G8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" s="1">
         <v>43916</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
         <v>12</v>
-      </c>
-      <c r="E9" t="s">
-        <v>13</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
       </c>
       <c r="G9" t="s">
+        <v>83</v>
+      </c>
+      <c r="H9" t="s">
+        <v>82</v>
+      </c>
+      <c r="I9" t="s">
         <v>84</v>
-      </c>
-      <c r="H9" t="s">
-        <v>83</v>
-      </c>
-      <c r="I9" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" s="1">
         <v>43979</v>
       </c>
       <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
         <v>33</v>
       </c>
-      <c r="D10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" t="s">
-        <v>34</v>
-      </c>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B11" s="1">
         <v>43559</v>
       </c>
       <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" t="s">
         <v>36</v>
       </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" t="s">
-        <v>37</v>
-      </c>
       <c r="G11" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B12" s="1">
         <v>43235</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G12" t="s">
+        <v>83</v>
+      </c>
+      <c r="H12" t="s">
+        <v>82</v>
+      </c>
+      <c r="I12" t="s">
         <v>84</v>
       </c>
-      <c r="H12" t="s">
-        <v>83</v>
-      </c>
-      <c r="I12" t="s">
-        <v>85</v>
-      </c>
       <c r="J12" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B13" s="1">
         <v>43489</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I13" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B14" s="1">
         <v>38187</v>
       </c>
       <c r="C14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" t="s">
         <v>43</v>
       </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" t="s">
-        <v>44</v>
-      </c>
       <c r="G14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B15" s="1">
         <v>41244</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B16" s="1">
         <v>41501</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" t="s">
         <v>12</v>
       </c>
-      <c r="E16" t="s">
-        <v>13</v>
-      </c>
       <c r="F16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G16" t="s">
+        <v>83</v>
+      </c>
+      <c r="H16" t="s">
+        <v>82</v>
+      </c>
+      <c r="I16" t="s">
         <v>84</v>
       </c>
-      <c r="H16" t="s">
-        <v>83</v>
-      </c>
-      <c r="I16" t="s">
-        <v>85</v>
-      </c>
       <c r="J16" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B17" s="1">
         <v>42409</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G17" t="s">
+        <v>83</v>
+      </c>
+      <c r="H17" t="s">
+        <v>82</v>
+      </c>
+      <c r="I17" t="s">
         <v>84</v>
       </c>
-      <c r="H17" t="s">
-        <v>83</v>
-      </c>
-      <c r="I17" t="s">
-        <v>85</v>
-      </c>
       <c r="J17" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B18" s="1">
         <v>42684</v>
       </c>
       <c r="C18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" t="s">
         <v>53</v>
       </c>
-      <c r="D18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" t="s">
-        <v>54</v>
-      </c>
       <c r="G18" t="s">
+        <v>86</v>
+      </c>
+      <c r="H18" t="s">
+        <v>82</v>
+      </c>
+      <c r="I18" t="s">
         <v>88</v>
-      </c>
-      <c r="H18" t="s">
-        <v>83</v>
-      </c>
-      <c r="I18" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B19" s="1">
         <v>43704</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G19" t="s">
+        <v>83</v>
+      </c>
+      <c r="H19" t="s">
+        <v>82</v>
+      </c>
+      <c r="I19" t="s">
         <v>84</v>
       </c>
-      <c r="H19" t="s">
-        <v>83</v>
-      </c>
-      <c r="I19" t="s">
-        <v>85</v>
-      </c>
       <c r="J19" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B20" s="1">
         <v>43525</v>
       </c>
       <c r="C20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F20" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="G20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B21" s="1">
         <v>42124</v>
       </c>
       <c r="C21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F21" t="s">
         <v>7</v>
       </c>
       <c r="G21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B22" s="1">
         <v>42766</v>
       </c>
       <c r="C22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F22" t="s">
         <v>7</v>
       </c>
       <c r="G22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B23" s="1">
         <v>41534</v>
       </c>
       <c r="C23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F23" t="s">
         <v>9</v>
       </c>
       <c r="G23" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B24" s="1">
         <v>42689</v>
       </c>
       <c r="C24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F24" t="s">
         <v>9</v>
       </c>
       <c r="G24" t="s">
+        <v>83</v>
+      </c>
+      <c r="H24" t="s">
+        <v>82</v>
+      </c>
+      <c r="I24" t="s">
         <v>84</v>
-      </c>
-      <c r="H24" t="s">
-        <v>83</v>
-      </c>
-      <c r="I24" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B25" s="1">
         <v>41793</v>
       </c>
       <c r="C25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" t="s">
         <v>12</v>
       </c>
-      <c r="E25" t="s">
-        <v>13</v>
-      </c>
       <c r="F25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G25" t="s">
+        <v>83</v>
+      </c>
+      <c r="H25" t="s">
+        <v>82</v>
+      </c>
+      <c r="I25" t="s">
         <v>84</v>
-      </c>
-      <c r="H25" t="s">
-        <v>83</v>
-      </c>
-      <c r="I25" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B26" s="1">
         <v>42964</v>
       </c>
       <c r="C26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B27" s="1">
         <v>42703</v>
       </c>
       <c r="C27" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G27" t="s">
+        <v>83</v>
+      </c>
+      <c r="H27" t="s">
         <v>84</v>
-      </c>
-      <c r="H27" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B28" s="1">
         <v>42628</v>
       </c>
       <c r="C28" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D28" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" t="s">
         <v>12</v>
       </c>
-      <c r="E28" t="s">
-        <v>13</v>
-      </c>
       <c r="F28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G28" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B29" s="1">
         <v>40498</v>
       </c>
       <c r="C29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G29" t="s">
+        <v>83</v>
+      </c>
+      <c r="H29" t="s">
+        <v>82</v>
+      </c>
+      <c r="I29" t="s">
         <v>84</v>
-      </c>
-      <c r="H29" t="s">
-        <v>83</v>
-      </c>
-      <c r="I29" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B30" s="1">
         <v>42797</v>
       </c>
       <c r="C30" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G30" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H30" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
